--- a/biology/Botanique/Parc_Pujiang/Parc_Pujiang.xlsx
+++ b/biology/Botanique/Parc_Pujiang/Parc_Pujiang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Pujiang (chinois simplifié : 浦江郊野公园 ; pinyin : pǔjiāng jiāoyě gōngyuán) est un parc situé dans le district de Minhang de Shanghai, en Chine.  
-Son ouverture au grand public a lieu le 29 juillet 2017[1].
+Son ouverture au grand public a lieu le 29 juillet 2017.
 </t>
         </is>
       </c>
@@ -513,16 +525,18 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comptant un total de 15,3 kilomètres carrés, le parc est divisé en 6 zones :  
 Le Jardin merveilleux (花园区),
 La Forêt Vigoureuse (活力森林区),
 Le Champs des hérons (柳鹭田园区),
 Le Repos en forêt (森林休憩区),
-La Promenade au bord de la rivière (滨江漫步区)[2]  ,
-Le Tapis de fleurs merveilleux (奇迹花毯) consistant en une reconstitution végétale tridimensionnelle à grande échelle (20 000 m²) de formes de fleurs[3] .
-Le 6 septembre 2019, le parc Pujiang a reçu la note 4A délivrée par le ministère de la Culture et du Tourisme chinois aux attractions touristiques nationales recevant entre 500 000 et 600 000 visiteurs par an[4].
+La Promenade au bord de la rivière (滨江漫步区)  ,
+Le Tapis de fleurs merveilleux (奇迹花毯) consistant en une reconstitution végétale tridimensionnelle à grande échelle (20 000 m²) de formes de fleurs .
+Le 6 septembre 2019, le parc Pujiang a reçu la note 4A délivrée par le ministère de la Culture et du Tourisme chinois aux attractions touristiques nationales recevant entre 500 000 et 600 000 visiteurs par an.
 </t>
         </is>
       </c>
@@ -551,10 +565,12 @@
           <t>Écosystème</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes présentes au niveau du parc demeurent l'orme, le camphre, le metasequoia, ainsi que le magnolia. 
-Par ailleurs, de nombreuses espèces d'oiseaux élisaient fréquemment domicile dans la zone géographique correspondant désormais au parc[5]. 
+Par ailleurs, de nombreuses espèces d'oiseaux élisaient fréquemment domicile dans la zone géographique correspondant désormais au parc. 
 </t>
         </is>
       </c>
@@ -583,9 +599,11 @@
           <t>Transports</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site est desservi par la ligne 8 ainsi que la ligne Pujiang du métro de Shanghai, station Shendu Highway (沈杜公路)[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site est desservi par la ligne 8 ainsi que la ligne Pujiang du métro de Shanghai, station Shendu Highway (沈杜公路).
 </t>
         </is>
       </c>
